--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,175 +465,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>7.52</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>8.02</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>7.55</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>

--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,15 +465,1855 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Fail in CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fail in CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fail in CS302,CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fail in CS302,CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fail in CS302,CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fail in CS302,CS304,CS305</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fail in CS302,CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>6.88</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Fail in CS302</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Fail in CS302,CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Fail in CS302,CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>PASS WITH GRACE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Fail in CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Fail in CS302,CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>PASS WITH GRACE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Fail in CS302,CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Fail in CS302,CS304,CS305,ES301</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Fail in CS302</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Fail in CS302,CS304,ES301</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Fail in CS302,CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Fail in CS302</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>PASS WITH GRACE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>PASS WITH GRACE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Fail in CS302,CS304,P-CS305</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Fail in CS302</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Fail in IT302,IT304,IT305</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Fail in CS302</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Fail in CS302</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>PASS WITH GRACE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Fail in CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>PASS WITH GRACE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Fail in CS302,CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>PASS WITH GRACE</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Fail in CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
         <is>
           <t>6.87</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>

--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,17 +465,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fail in CS304</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -505,17 +505,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fail in CS304</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -525,12 +525,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -545,17 +545,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>6.92</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Fail in CS302,CS304</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -565,17 +565,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fail in CS302,CS304</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -585,12 +585,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -605,17 +605,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fail in CS302,CS304</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -625,12 +625,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -645,12 +645,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -665,12 +665,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -685,17 +685,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Fail in CS302,CS304,CS305</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -705,12 +705,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -745,17 +745,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fail in CS302,CS304</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -785,12 +785,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -805,12 +805,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -825,17 +825,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Fail in CS302</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -845,17 +845,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>Fail in CS303,CS304</t>
         </is>
       </c>
     </row>
@@ -865,12 +865,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>7.69</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -885,12 +885,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -945,12 +945,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>7.58</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -965,12 +965,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -985,17 +985,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Fail in CS302,CS304</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1005,17 +1005,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Fail in CS302,CS304</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1025,17 +1025,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>6.92</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PASS WITH GRACE</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1045,17 +1045,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Fail in CS304</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1065,17 +1065,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Fail in CS302,CS304</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1085,17 +1085,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PASS WITH GRACE</t>
+          <t>Fail in P-CS305,P-CS306</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Fail in CS302,CS304</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1125,17 +1125,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>Fail in CS303,CS304</t>
         </is>
       </c>
     </row>
@@ -1145,17 +1145,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>Fail in CS302</t>
         </is>
       </c>
     </row>
@@ -1165,17 +1165,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>Fail in CS302,CS304</t>
         </is>
       </c>
     </row>
@@ -1185,12 +1185,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1205,17 +1205,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Fail in CS302,CS304,CS305,ES301</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1225,17 +1225,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Fail in CS302</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1245,12 +1245,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>6.26</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1285,17 +1285,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Fail in CS302,CS304,ES301</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Fail in CS302,CS304</t>
+          <t>PASS WITH GRACE</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1385,17 +1385,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Fail in CS302</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1405,12 +1405,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1445,12 +1445,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1465,17 +1465,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7.54</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>Fail in CS302</t>
         </is>
       </c>
     </row>
@@ -1485,12 +1485,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>8.33</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1505,17 +1505,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>PASS WITH GRACE</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1525,12 +1525,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1545,17 +1545,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>Fail in CS302,CS303,CS304,CS305</t>
         </is>
       </c>
     </row>
@@ -1565,17 +1565,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>PASS WITH GRACE</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1585,17 +1585,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Fail in CS302,CS304,P-CS305</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1605,17 +1605,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Fail in CS302</t>
+          <t>Fail in CS302,CS304</t>
         </is>
       </c>
     </row>
@@ -1625,12 +1625,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7.96</t>
+          <t>7.67</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1645,17 +1645,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Fail in IT302,IT304,IT305</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1705,17 +1705,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Fail in CS302</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1725,12 +1725,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1745,12 +1745,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1765,17 +1765,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Fail in CS302</t>
+          <t>PASS WITH GRACE</t>
         </is>
       </c>
     </row>
@@ -1785,12 +1785,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>6.92</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1825,12 +1825,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1845,12 +1845,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6.92</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1865,17 +1865,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PASS WITH GRACE</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1885,12 +1885,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>8.83</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -1905,12 +1905,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>6.53</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -1925,12 +1925,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6.92</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1965,17 +1965,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Fail in CS304</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1985,12 +1985,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2005,17 +2005,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>7.38</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>PASS WITH GRACE</t>
         </is>
       </c>
     </row>
@@ -2025,12 +2025,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2045,12 +2045,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2065,12 +2065,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>8.59</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2110,12 +2110,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>PASS WITH GRACE</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -2125,12 +2125,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2145,17 +2145,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7.38</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>Fail in CS303,CS304</t>
         </is>
       </c>
     </row>
@@ -2165,17 +2165,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Fail in CS302,CS304</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -2185,17 +2185,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>PASS WITH GRACE</t>
+          <t>Fail in CS303,CS304</t>
         </is>
       </c>
     </row>
@@ -2205,17 +2205,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>PASS WITH GRACE</t>
         </is>
       </c>
     </row>
@@ -2225,12 +2225,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>8.17</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>7.62</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2245,17 +2245,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Fail in CS304</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2305,15 +2305,1995 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>7.96</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>7.93</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Fail in CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Fail in CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Fail in CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Fail in CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>PASS WITH GRACE</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Fail in CS302,CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Fail in CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Fail in CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Fail in CS302,CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Fail in CS302,CS303,CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>PASS WITH GRACE</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Fail in CS303,CS304,ES301</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Fail in CS303,CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Fail in CS303,CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Fail in CS303</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>PASS WITH GRACE</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Fail in CS303,ES301</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>PASS WITH GRACE</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>PASS WITH GRACE</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>

--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,8 +435,6 @@
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -447,27 +445,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Roll Number</t>
+          <t>SGPA</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>CGPA</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>SGPA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CGPA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>RESULT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Fail in CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fail in P-CS304,CS304,P-CS305</t>
         </is>
       </c>
     </row>
